--- a/lec2_problemsheet.xlsx
+++ b/lec2_problemsheet.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Desktop\Probability\2_Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\GitHub\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57854252-682C-4987-834E-303CA5A6FE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C438F747-CA4C-471D-AE2E-9CF6B7DAC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18290" windowHeight="9690" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18290" windowHeight="9690" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="4" r:id="rId1"/>
-    <sheet name="Taul2" sheetId="5" r:id="rId2"/>
-    <sheet name="1.Parameters" sheetId="1" r:id="rId3"/>
-    <sheet name="2. Grouped data parameters" sheetId="2" r:id="rId4"/>
-    <sheet name="Excel function ref" sheetId="3" r:id="rId5"/>
+    <sheet name="1.Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="2. Grouped data parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Excel function ref" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
   <si>
     <t>1. Calculation of measures of central tendency and  variation. Grouping data.</t>
   </si>
@@ -781,34 +779,13 @@
     <t>calculates the sum of products of numbers of two columns</t>
   </si>
   <si>
-    <t xml:space="preserve">Create histogram of data using following </t>
-  </si>
-  <si>
     <t>upper bound</t>
   </si>
   <si>
-    <t>Luokka</t>
-  </si>
-  <si>
-    <t>Lisää</t>
-  </si>
-  <si>
-    <t>Frekvenssi</t>
-  </si>
-  <si>
-    <t>Kumulatiivinen %</t>
-  </si>
-  <si>
-    <t>Piste</t>
-  </si>
-  <si>
-    <t>Sarake1</t>
-  </si>
-  <si>
-    <t>Järjestys</t>
-  </si>
-  <si>
-    <t>Prosentti</t>
+    <t>Create histogram of data using following upper bounds</t>
+  </si>
+  <si>
+    <t>Read frequencies from the histogram</t>
   </si>
 </sst>
 </file>
@@ -895,14 +872,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,8 +898,14 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -945,31 +928,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,16 +975,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -1107,372 +1062,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Histogrammi</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Frekvenssi</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lisää</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-74BE-4480-9316-03BECFB25881}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1225009360"/>
-        <c:axId val="1225013200"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Kumulatiivinen %</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lisää</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.17616580310880828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32642487046632124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54922279792746109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9689119170984456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-74BE-4480-9316-03BECFB25881}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1556739936"/>
-        <c:axId val="1556746176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1225009360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fi-FI"/>
-                  <a:t>Luokka</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1225013200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1225013200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fi-FI"/>
-                  <a:t>Frekvenssi</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1225009360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1556746176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1556739936"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1556739936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1556746176"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Kaavio 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6E4F30-4D53-60AE-3B16-1D53837436C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -1891,2841 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10023F5-E411-4D7C-8D27-C9FC9A6F8C73}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>20</v>
-      </c>
-      <c r="B2" s="23">
-        <v>34</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0.17616580310880828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>50</v>
-      </c>
-      <c r="B3" s="23">
-        <v>29</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0.32642487046632124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>100</v>
-      </c>
-      <c r="B4" s="23">
-        <v>43</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.54922279792746109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="23">
-        <v>81</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.9689119170984456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>10000</v>
-      </c>
-      <c r="B6" s="23">
-        <v>6</v>
-      </c>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF946429-8CA9-46BB-A8BA-7FD9707C8633}">
-  <dimension ref="A1:D194"/>
-  <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B131" sqref="B89:B131"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>159</v>
-      </c>
-      <c r="B2" s="22">
-        <v>8592</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>116</v>
-      </c>
-      <c r="B3" s="22">
-        <v>2436</v>
-      </c>
-      <c r="C3" s="23">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>15</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1955</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>108</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1737</v>
-      </c>
-      <c r="C5" s="23">
-        <v>4</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>110</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1672</v>
-      </c>
-      <c r="C6" s="23">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>16</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1329</v>
-      </c>
-      <c r="C7" s="23">
-        <v>6</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.97299999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>114</v>
-      </c>
-      <c r="B8" s="22">
-        <v>778</v>
-      </c>
-      <c r="C8" s="23">
-        <v>7</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.96799999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>173</v>
-      </c>
-      <c r="B9" s="22">
-        <v>676</v>
-      </c>
-      <c r="C9" s="23">
-        <v>8</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>123</v>
-      </c>
-      <c r="B10" s="22">
-        <v>639</v>
-      </c>
-      <c r="C10" s="23">
-        <v>9</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22">
-        <v>590</v>
-      </c>
-      <c r="C11" s="23">
-        <v>10</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>148</v>
-      </c>
-      <c r="B12" s="22">
-        <v>571</v>
-      </c>
-      <c r="C12" s="23">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.94699999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>165</v>
-      </c>
-      <c r="B13" s="22">
-        <v>533</v>
-      </c>
-      <c r="C13" s="23">
-        <v>12</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>149</v>
-      </c>
-      <c r="B14" s="22">
-        <v>524</v>
-      </c>
-      <c r="C14" s="23">
-        <v>13</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>98</v>
-      </c>
-      <c r="B15" s="22">
-        <v>523</v>
-      </c>
-      <c r="C15" s="23">
-        <v>14</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>125</v>
-      </c>
-      <c r="B16" s="22">
-        <v>522</v>
-      </c>
-      <c r="C16" s="23">
-        <v>15</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>28</v>
-      </c>
-      <c r="B17" s="22">
-        <v>516</v>
-      </c>
-      <c r="C17" s="23">
-        <v>16</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.92100000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>82</v>
-      </c>
-      <c r="B18" s="22">
-        <v>481</v>
-      </c>
-      <c r="C18" s="23">
-        <v>17</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>44</v>
-      </c>
-      <c r="B19" s="22">
-        <v>433</v>
-      </c>
-      <c r="C19" s="23">
-        <v>18</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>77</v>
-      </c>
-      <c r="B20" s="22">
-        <v>425</v>
-      </c>
-      <c r="C20" s="23">
-        <v>19</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>87</v>
-      </c>
-      <c r="B21" s="22">
-        <v>424</v>
-      </c>
-      <c r="C21" s="23">
-        <v>20</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>141</v>
-      </c>
-      <c r="B22" s="22">
-        <v>394</v>
-      </c>
-      <c r="C22" s="23">
-        <v>21</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>18</v>
-      </c>
-      <c r="B23" s="22">
-        <v>386</v>
-      </c>
-      <c r="C23" s="23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>71</v>
-      </c>
-      <c r="B24" s="22">
-        <v>371</v>
-      </c>
-      <c r="C24" s="23">
-        <v>23</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>144</v>
-      </c>
-      <c r="B25" s="22">
-        <v>368</v>
-      </c>
-      <c r="C25" s="23">
-        <v>24</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>168</v>
-      </c>
-      <c r="B26" s="22">
-        <v>349</v>
-      </c>
-      <c r="C26" s="23">
-        <v>25</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>90</v>
-      </c>
-      <c r="B27" s="22">
-        <v>338</v>
-      </c>
-      <c r="C27" s="23">
-        <v>26</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>73</v>
-      </c>
-      <c r="B28" s="22">
-        <v>320</v>
-      </c>
-      <c r="C28" s="23">
-        <v>27</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>189</v>
-      </c>
-      <c r="B29" s="22">
-        <v>319</v>
-      </c>
-      <c r="C29" s="23">
-        <v>28</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>136</v>
-      </c>
-      <c r="B30" s="22">
-        <v>312</v>
-      </c>
-      <c r="C30" s="23">
-        <v>29</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>54</v>
-      </c>
-      <c r="B31" s="22">
-        <v>307</v>
-      </c>
-      <c r="C31" s="23">
-        <v>30</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0.84799999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>177</v>
-      </c>
-      <c r="B32" s="22">
-        <v>299</v>
-      </c>
-      <c r="C32" s="23">
-        <v>31</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0.84299999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>152</v>
-      </c>
-      <c r="B33" s="22">
-        <v>295</v>
-      </c>
-      <c r="C33" s="23">
-        <v>32</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
-        <v>184</v>
-      </c>
-      <c r="B34" s="22">
-        <v>280</v>
-      </c>
-      <c r="C34" s="23">
-        <v>33</v>
-      </c>
-      <c r="D34" s="24">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>65</v>
-      </c>
-      <c r="B35" s="22">
-        <v>274</v>
-      </c>
-      <c r="C35" s="23">
-        <v>34</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>89</v>
-      </c>
-      <c r="B36" s="22">
-        <v>261</v>
-      </c>
-      <c r="C36" s="23">
-        <v>35</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>104</v>
-      </c>
-      <c r="B37" s="22">
-        <v>253</v>
-      </c>
-      <c r="C37" s="23">
-        <v>36</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>102</v>
-      </c>
-      <c r="B38" s="22">
-        <v>247</v>
-      </c>
-      <c r="C38" s="23">
-        <v>37</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>130</v>
-      </c>
-      <c r="B39" s="22">
-        <v>246</v>
-      </c>
-      <c r="C39" s="23">
-        <v>38</v>
-      </c>
-      <c r="D39" s="24">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <v>181</v>
-      </c>
-      <c r="B40" s="22">
-        <v>243</v>
-      </c>
-      <c r="C40" s="23">
-        <v>39</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
-        <v>94</v>
-      </c>
-      <c r="B41" s="22">
-        <v>242</v>
-      </c>
-      <c r="C41" s="23">
-        <v>40</v>
-      </c>
-      <c r="D41" s="24">
-        <v>0.79600000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>67</v>
-      </c>
-      <c r="B42" s="22">
-        <v>239</v>
-      </c>
-      <c r="C42" s="23">
-        <v>41</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>50</v>
-      </c>
-      <c r="B43" s="22">
-        <v>235</v>
-      </c>
-      <c r="C43" s="23">
-        <v>42</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0.78600000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
-        <v>72</v>
-      </c>
-      <c r="B44" s="22">
-        <v>234</v>
-      </c>
-      <c r="C44" s="23">
-        <v>43</v>
-      </c>
-      <c r="D44" s="24">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
-        <v>145</v>
-      </c>
-      <c r="B45" s="22">
-        <v>234</v>
-      </c>
-      <c r="C45" s="23">
-        <v>43</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
-        <v>157</v>
-      </c>
-      <c r="B46" s="22">
-        <v>234</v>
-      </c>
-      <c r="C46" s="23">
-        <v>43</v>
-      </c>
-      <c r="D46" s="24">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <v>111</v>
-      </c>
-      <c r="B47" s="22">
-        <v>233</v>
-      </c>
-      <c r="C47" s="23">
-        <v>46</v>
-      </c>
-      <c r="D47" s="24">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
-        <v>171</v>
-      </c>
-      <c r="B48" s="22">
-        <v>223</v>
-      </c>
-      <c r="C48" s="23">
-        <v>47</v>
-      </c>
-      <c r="D48" s="24">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
-        <v>106</v>
-      </c>
-      <c r="B49" s="22">
-        <v>222</v>
-      </c>
-      <c r="C49" s="23">
-        <v>48</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0.755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
-        <v>131</v>
-      </c>
-      <c r="B50" s="22">
-        <v>217</v>
-      </c>
-      <c r="C50" s="23">
-        <v>49</v>
-      </c>
-      <c r="D50" s="24">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>124</v>
-      </c>
-      <c r="B51" s="22">
-        <v>216</v>
-      </c>
-      <c r="C51" s="23">
-        <v>50</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0.74399999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
-        <v>7</v>
-      </c>
-      <c r="B52" s="22">
-        <v>214</v>
-      </c>
-      <c r="C52" s="23">
-        <v>51</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0.73899999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>24</v>
-      </c>
-      <c r="B53" s="22">
-        <v>210</v>
-      </c>
-      <c r="C53" s="23">
-        <v>52</v>
-      </c>
-      <c r="D53" s="24">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
-        <v>88</v>
-      </c>
-      <c r="B54" s="22">
-        <v>200</v>
-      </c>
-      <c r="C54" s="23">
-        <v>53</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
-        <v>151</v>
-      </c>
-      <c r="B55" s="22">
-        <v>184</v>
-      </c>
-      <c r="C55" s="23">
-        <v>54</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
-        <v>6</v>
-      </c>
-      <c r="B56" s="22">
-        <v>177</v>
-      </c>
-      <c r="C56" s="23">
-        <v>55</v>
-      </c>
-      <c r="D56" s="24">
-        <v>0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
-        <v>4</v>
-      </c>
-      <c r="B57" s="22">
-        <v>170</v>
-      </c>
-      <c r="C57" s="23">
-        <v>56</v>
-      </c>
-      <c r="D57" s="24">
-        <v>0.71299999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
-        <v>74</v>
-      </c>
-      <c r="B58" s="22">
-        <v>169</v>
-      </c>
-      <c r="C58" s="23">
-        <v>57</v>
-      </c>
-      <c r="D58" s="24">
-        <v>0.70799999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
-        <v>83</v>
-      </c>
-      <c r="B59" s="22">
-        <v>153</v>
-      </c>
-      <c r="C59" s="23">
-        <v>58</v>
-      </c>
-      <c r="D59" s="24">
-        <v>0.70299999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
-        <v>36</v>
-      </c>
-      <c r="B60" s="22">
-        <v>152</v>
-      </c>
-      <c r="C60" s="23">
-        <v>59</v>
-      </c>
-      <c r="D60" s="24">
-        <v>0.69699999999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
-        <v>68</v>
-      </c>
-      <c r="B61" s="22">
-        <v>150</v>
-      </c>
-      <c r="C61" s="23">
-        <v>60</v>
-      </c>
-      <c r="D61" s="24">
-        <v>0.69199999999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
-        <v>29</v>
-      </c>
-      <c r="B62" s="22">
-        <v>149</v>
-      </c>
-      <c r="C62" s="23">
-        <v>61</v>
-      </c>
-      <c r="D62" s="24">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
-        <v>176</v>
-      </c>
-      <c r="B63" s="22">
-        <v>141</v>
-      </c>
-      <c r="C63" s="23">
-        <v>62</v>
-      </c>
-      <c r="D63" s="24">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>47</v>
-      </c>
-      <c r="B64" s="22">
-        <v>139</v>
-      </c>
-      <c r="C64" s="23">
-        <v>63</v>
-      </c>
-      <c r="D64" s="24">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <v>45</v>
-      </c>
-      <c r="B65" s="22">
-        <v>136</v>
-      </c>
-      <c r="C65" s="23">
-        <v>64</v>
-      </c>
-      <c r="D65" s="24">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <v>46</v>
-      </c>
-      <c r="B66" s="22">
-        <v>136</v>
-      </c>
-      <c r="C66" s="23">
-        <v>64</v>
-      </c>
-      <c r="D66" s="24">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <v>142</v>
-      </c>
-      <c r="B67" s="22">
-        <v>134</v>
-      </c>
-      <c r="C67" s="23">
-        <v>66</v>
-      </c>
-      <c r="D67" s="24">
-        <v>0.66100000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
-        <v>91</v>
-      </c>
-      <c r="B68" s="22">
-        <v>128</v>
-      </c>
-      <c r="C68" s="23">
-        <v>67</v>
-      </c>
-      <c r="D68" s="24">
-        <v>0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>59</v>
-      </c>
-      <c r="B69" s="22">
-        <v>127</v>
-      </c>
-      <c r="C69" s="23">
-        <v>68</v>
-      </c>
-      <c r="D69" s="24">
-        <v>0.65100000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
-        <v>13</v>
-      </c>
-      <c r="B70" s="22">
-        <v>126</v>
-      </c>
-      <c r="C70" s="23">
-        <v>69</v>
-      </c>
-      <c r="D70" s="24">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <v>172</v>
-      </c>
-      <c r="B71" s="22">
-        <v>126</v>
-      </c>
-      <c r="C71" s="23">
-        <v>69</v>
-      </c>
-      <c r="D71" s="24">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
-        <v>158</v>
-      </c>
-      <c r="B72" s="22">
-        <v>122</v>
-      </c>
-      <c r="C72" s="23">
-        <v>71</v>
-      </c>
-      <c r="D72" s="24">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
-        <v>160</v>
-      </c>
-      <c r="B73" s="22">
-        <v>121</v>
-      </c>
-      <c r="C73" s="23">
-        <v>72</v>
-      </c>
-      <c r="D73" s="24">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
-        <v>61</v>
-      </c>
-      <c r="B74" s="22">
-        <v>118</v>
-      </c>
-      <c r="C74" s="23">
-        <v>73</v>
-      </c>
-      <c r="D74" s="24">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
-        <v>183</v>
-      </c>
-      <c r="B75" s="22">
-        <v>114</v>
-      </c>
-      <c r="C75" s="23">
-        <v>74</v>
-      </c>
-      <c r="D75" s="24">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
-        <v>53</v>
-      </c>
-      <c r="B76" s="22">
-        <v>113</v>
-      </c>
-      <c r="C76" s="23">
-        <v>75</v>
-      </c>
-      <c r="D76" s="24">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
-        <v>80</v>
-      </c>
-      <c r="B77" s="22">
-        <v>112</v>
-      </c>
-      <c r="C77" s="23">
-        <v>76</v>
-      </c>
-      <c r="D77" s="24">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
-        <v>143</v>
-      </c>
-      <c r="B78" s="22">
-        <v>112</v>
-      </c>
-      <c r="C78" s="23">
-        <v>76</v>
-      </c>
-      <c r="D78" s="24">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
-        <v>179</v>
-      </c>
-      <c r="B79" s="22">
-        <v>112</v>
-      </c>
-      <c r="C79" s="23">
-        <v>76</v>
-      </c>
-      <c r="D79" s="24">
-        <v>0.59799999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
-        <v>12</v>
-      </c>
-      <c r="B80" s="22">
-        <v>109</v>
-      </c>
-      <c r="C80" s="23">
-        <v>79</v>
-      </c>
-      <c r="D80" s="24">
-        <v>0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <v>133</v>
-      </c>
-      <c r="B81" s="22">
-        <v>108</v>
-      </c>
-      <c r="C81" s="23">
-        <v>80</v>
-      </c>
-      <c r="D81" s="24">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <v>43</v>
-      </c>
-      <c r="B82" s="22">
-        <v>105</v>
-      </c>
-      <c r="C82" s="23">
-        <v>81</v>
-      </c>
-      <c r="D82" s="24">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
-        <v>85</v>
-      </c>
-      <c r="B83" s="22">
-        <v>105</v>
-      </c>
-      <c r="C83" s="23">
-        <v>81</v>
-      </c>
-      <c r="D83" s="24">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>115</v>
-      </c>
-      <c r="B84" s="22">
-        <v>105</v>
-      </c>
-      <c r="C84" s="23">
-        <v>81</v>
-      </c>
-      <c r="D84" s="24">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
-        <v>161</v>
-      </c>
-      <c r="B85" s="22">
-        <v>105</v>
-      </c>
-      <c r="C85" s="23">
-        <v>81</v>
-      </c>
-      <c r="D85" s="24">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
-        <v>107</v>
-      </c>
-      <c r="B86" s="22">
-        <v>104</v>
-      </c>
-      <c r="C86" s="23">
-        <v>85</v>
-      </c>
-      <c r="D86" s="24">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
-        <v>2</v>
-      </c>
-      <c r="B87" s="22">
-        <v>103</v>
-      </c>
-      <c r="C87" s="23">
-        <v>86</v>
-      </c>
-      <c r="D87" s="24">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
-        <v>40</v>
-      </c>
-      <c r="B88" s="22">
-        <v>102</v>
-      </c>
-      <c r="C88" s="23">
-        <v>87</v>
-      </c>
-      <c r="D88" s="24">
-        <v>0.55200000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
-        <v>9</v>
-      </c>
-      <c r="B89" s="22">
-        <v>98</v>
-      </c>
-      <c r="C89" s="23">
-        <v>88</v>
-      </c>
-      <c r="D89" s="24">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
-        <v>49</v>
-      </c>
-      <c r="B90" s="22">
-        <v>97</v>
-      </c>
-      <c r="C90" s="23">
-        <v>89</v>
-      </c>
-      <c r="D90" s="24">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
-        <v>93</v>
-      </c>
-      <c r="B91" s="22">
-        <v>97</v>
-      </c>
-      <c r="C91" s="23">
-        <v>89</v>
-      </c>
-      <c r="D91" s="24">
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
-        <v>30</v>
-      </c>
-      <c r="B92" s="22">
-        <v>96</v>
-      </c>
-      <c r="C92" s="23">
-        <v>91</v>
-      </c>
-      <c r="D92" s="24">
-        <v>0.53100000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
-        <v>78</v>
-      </c>
-      <c r="B93" s="22">
-        <v>95</v>
-      </c>
-      <c r="C93" s="23">
-        <v>92</v>
-      </c>
-      <c r="D93" s="24">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
-        <v>167</v>
-      </c>
-      <c r="B94" s="22">
-        <v>95</v>
-      </c>
-      <c r="C94" s="23">
-        <v>92</v>
-      </c>
-      <c r="D94" s="24">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
-        <v>155</v>
-      </c>
-      <c r="B95" s="22">
-        <v>92</v>
-      </c>
-      <c r="C95" s="23">
-        <v>94</v>
-      </c>
-      <c r="D95" s="24">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>41</v>
-      </c>
-      <c r="B96" s="22">
-        <v>91</v>
-      </c>
-      <c r="C96" s="23">
-        <v>95</v>
-      </c>
-      <c r="D96" s="24">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
-        <v>25</v>
-      </c>
-      <c r="B97" s="22">
-        <v>86</v>
-      </c>
-      <c r="C97" s="23">
-        <v>96</v>
-      </c>
-      <c r="D97" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
-        <v>146</v>
-      </c>
-      <c r="B98" s="22">
-        <v>86</v>
-      </c>
-      <c r="C98" s="23">
-        <v>96</v>
-      </c>
-      <c r="D98" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="23">
-        <v>27</v>
-      </c>
-      <c r="B99" s="22">
-        <v>85</v>
-      </c>
-      <c r="C99" s="23">
-        <v>98</v>
-      </c>
-      <c r="D99" s="24">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
-        <v>119</v>
-      </c>
-      <c r="B100" s="22">
-        <v>85</v>
-      </c>
-      <c r="C100" s="23">
-        <v>98</v>
-      </c>
-      <c r="D100" s="24">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
-        <v>63</v>
-      </c>
-      <c r="B101" s="22">
-        <v>84</v>
-      </c>
-      <c r="C101" s="23">
-        <v>100</v>
-      </c>
-      <c r="D101" s="24">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="23">
-        <v>121</v>
-      </c>
-      <c r="B102" s="22">
-        <v>84</v>
-      </c>
-      <c r="C102" s="23">
-        <v>100</v>
-      </c>
-      <c r="D102" s="24">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="23">
-        <v>132</v>
-      </c>
-      <c r="B103" s="22">
-        <v>83</v>
-      </c>
-      <c r="C103" s="23">
-        <v>102</v>
-      </c>
-      <c r="D103" s="24">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="23">
-        <v>187</v>
-      </c>
-      <c r="B104" s="22">
-        <v>83</v>
-      </c>
-      <c r="C104" s="23">
-        <v>102</v>
-      </c>
-      <c r="D104" s="24">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="23">
-        <v>156</v>
-      </c>
-      <c r="B105" s="22">
-        <v>82</v>
-      </c>
-      <c r="C105" s="23">
-        <v>104</v>
-      </c>
-      <c r="D105" s="24">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="23">
-        <v>70</v>
-      </c>
-      <c r="B106" s="22">
-        <v>80</v>
-      </c>
-      <c r="C106" s="23">
-        <v>105</v>
-      </c>
-      <c r="D106" s="24">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
-        <v>153</v>
-      </c>
-      <c r="B107" s="22">
-        <v>80</v>
-      </c>
-      <c r="C107" s="23">
-        <v>105</v>
-      </c>
-      <c r="D107" s="24">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
-        <v>178</v>
-      </c>
-      <c r="B108" s="22">
-        <v>80</v>
-      </c>
-      <c r="C108" s="23">
-        <v>105</v>
-      </c>
-      <c r="D108" s="24">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="23">
-        <v>99</v>
-      </c>
-      <c r="B109" s="22">
-        <v>77</v>
-      </c>
-      <c r="C109" s="23">
-        <v>108</v>
-      </c>
-      <c r="D109" s="24">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="23">
-        <v>175</v>
-      </c>
-      <c r="B110" s="22">
-        <v>76</v>
-      </c>
-      <c r="C110" s="23">
-        <v>109</v>
-      </c>
-      <c r="D110" s="24">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
-        <v>52</v>
-      </c>
-      <c r="B111" s="22">
-        <v>73</v>
-      </c>
-      <c r="C111" s="23">
-        <v>110</v>
-      </c>
-      <c r="D111" s="24">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="23">
-        <v>86</v>
-      </c>
-      <c r="B112" s="22">
-        <v>73</v>
-      </c>
-      <c r="C112" s="23">
-        <v>110</v>
-      </c>
-      <c r="D112" s="24">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="23">
-        <v>42</v>
-      </c>
-      <c r="B113" s="22">
-        <v>72</v>
-      </c>
-      <c r="C113" s="23">
-        <v>112</v>
-      </c>
-      <c r="D113" s="24">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="23">
-        <v>174</v>
-      </c>
-      <c r="B114" s="22">
-        <v>72</v>
-      </c>
-      <c r="C114" s="23">
-        <v>112</v>
-      </c>
-      <c r="D114" s="24">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="23">
-        <v>39</v>
-      </c>
-      <c r="B115" s="22">
-        <v>71</v>
-      </c>
-      <c r="C115" s="23">
-        <v>114</v>
-      </c>
-      <c r="D115" s="24">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="23">
-        <v>58</v>
-      </c>
-      <c r="B116" s="22">
-        <v>70</v>
-      </c>
-      <c r="C116" s="23">
-        <v>115</v>
-      </c>
-      <c r="D116" s="24">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="23">
-        <v>113</v>
-      </c>
-      <c r="B117" s="22">
-        <v>66</v>
-      </c>
-      <c r="C117" s="23">
-        <v>116</v>
-      </c>
-      <c r="D117" s="24">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="23">
-        <v>1</v>
-      </c>
-      <c r="B118" s="22">
-        <v>65</v>
-      </c>
-      <c r="C118" s="23">
-        <v>117</v>
-      </c>
-      <c r="D118" s="24">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="23">
-        <v>191</v>
-      </c>
-      <c r="B119" s="22">
-        <v>65</v>
-      </c>
-      <c r="C119" s="23">
-        <v>117</v>
-      </c>
-      <c r="D119" s="24">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="23">
-        <v>21</v>
-      </c>
-      <c r="B120" s="22">
-        <v>63</v>
-      </c>
-      <c r="C120" s="23">
-        <v>119</v>
-      </c>
-      <c r="D120" s="24">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
-        <v>182</v>
-      </c>
-      <c r="B121" s="22">
-        <v>63</v>
-      </c>
-      <c r="C121" s="23">
-        <v>119</v>
-      </c>
-      <c r="D121" s="24">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="23">
-        <v>26</v>
-      </c>
-      <c r="B122" s="22">
-        <v>62</v>
-      </c>
-      <c r="C122" s="23">
-        <v>121</v>
-      </c>
-      <c r="D122" s="24">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="23">
-        <v>31</v>
-      </c>
-      <c r="B123" s="22">
-        <v>61</v>
-      </c>
-      <c r="C123" s="23">
-        <v>122</v>
-      </c>
-      <c r="D123" s="24">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="23">
-        <v>55</v>
-      </c>
-      <c r="B124" s="22">
-        <v>61</v>
-      </c>
-      <c r="C124" s="23">
-        <v>122</v>
-      </c>
-      <c r="D124" s="24">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="23">
-        <v>137</v>
-      </c>
-      <c r="B125" s="22">
-        <v>60</v>
-      </c>
-      <c r="C125" s="23">
-        <v>124</v>
-      </c>
-      <c r="D125" s="24">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="23">
-        <v>128</v>
-      </c>
-      <c r="B126" s="22">
-        <v>59</v>
-      </c>
-      <c r="C126" s="23">
-        <v>125</v>
-      </c>
-      <c r="D126" s="24">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="23">
-        <v>75</v>
-      </c>
-      <c r="B127" s="22">
-        <v>58</v>
-      </c>
-      <c r="C127" s="23">
-        <v>126</v>
-      </c>
-      <c r="D127" s="24">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="23">
-        <v>100</v>
-      </c>
-      <c r="B128" s="22">
-        <v>56</v>
-      </c>
-      <c r="C128" s="23">
-        <v>127</v>
-      </c>
-      <c r="D128" s="24">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="23">
-        <v>84</v>
-      </c>
-      <c r="B129" s="22">
-        <v>55</v>
-      </c>
-      <c r="C129" s="23">
-        <v>128</v>
-      </c>
-      <c r="D129" s="24">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="23">
-        <v>66</v>
-      </c>
-      <c r="B130" s="22">
-        <v>54</v>
-      </c>
-      <c r="C130" s="23">
-        <v>129</v>
-      </c>
-      <c r="D130" s="24">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="23">
-        <v>105</v>
-      </c>
-      <c r="B131" s="22">
-        <v>52</v>
-      </c>
-      <c r="C131" s="23">
-        <v>130</v>
-      </c>
-      <c r="D131" s="24">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="23">
-        <v>164</v>
-      </c>
-      <c r="B132" s="22">
-        <v>50</v>
-      </c>
-      <c r="C132" s="23">
-        <v>131</v>
-      </c>
-      <c r="D132" s="24">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="23">
-        <v>48</v>
-      </c>
-      <c r="B133" s="22">
-        <v>49</v>
-      </c>
-      <c r="C133" s="23">
-        <v>132</v>
-      </c>
-      <c r="D133" s="24">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="23">
-        <v>17</v>
-      </c>
-      <c r="B134" s="22">
-        <v>47</v>
-      </c>
-      <c r="C134" s="23">
-        <v>133</v>
-      </c>
-      <c r="D134" s="24">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="23">
-        <v>37</v>
-      </c>
-      <c r="B135" s="22">
-        <v>47</v>
-      </c>
-      <c r="C135" s="23">
-        <v>133</v>
-      </c>
-      <c r="D135" s="24">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="23">
-        <v>118</v>
-      </c>
-      <c r="B136" s="22">
-        <v>47</v>
-      </c>
-      <c r="C136" s="23">
-        <v>133</v>
-      </c>
-      <c r="D136" s="24">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="23">
-        <v>51</v>
-      </c>
-      <c r="B137" s="22">
-        <v>45</v>
-      </c>
-      <c r="C137" s="23">
-        <v>136</v>
-      </c>
-      <c r="D137" s="24">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="23">
-        <v>103</v>
-      </c>
-      <c r="B138" s="22">
-        <v>43</v>
-      </c>
-      <c r="C138" s="23">
-        <v>137</v>
-      </c>
-      <c r="D138" s="24">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="23">
-        <v>120</v>
-      </c>
-      <c r="B139" s="22">
-        <v>43</v>
-      </c>
-      <c r="C139" s="23">
-        <v>137</v>
-      </c>
-      <c r="D139" s="24">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="23">
-        <v>193</v>
-      </c>
-      <c r="B140" s="22">
-        <v>43</v>
-      </c>
-      <c r="C140" s="23">
-        <v>137</v>
-      </c>
-      <c r="D140" s="24">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="23">
-        <v>14</v>
-      </c>
-      <c r="B141" s="22">
-        <v>41</v>
-      </c>
-      <c r="C141" s="23">
-        <v>140</v>
-      </c>
-      <c r="D141" s="24">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="23">
-        <v>56</v>
-      </c>
-      <c r="B142" s="22">
-        <v>37</v>
-      </c>
-      <c r="C142" s="23">
-        <v>141</v>
-      </c>
-      <c r="D142" s="24">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="23">
-        <v>185</v>
-      </c>
-      <c r="B143" s="22">
-        <v>37</v>
-      </c>
-      <c r="C143" s="23">
-        <v>141</v>
-      </c>
-      <c r="D143" s="24">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="23">
-        <v>95</v>
-      </c>
-      <c r="B144" s="22">
-        <v>35</v>
-      </c>
-      <c r="C144" s="23">
-        <v>143</v>
-      </c>
-      <c r="D144" s="24">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="23">
-        <v>96</v>
-      </c>
-      <c r="B145" s="22">
-        <v>33</v>
-      </c>
-      <c r="C145" s="23">
-        <v>144</v>
-      </c>
-      <c r="D145" s="24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="23">
-        <v>188</v>
-      </c>
-      <c r="B146" s="22">
-        <v>33</v>
-      </c>
-      <c r="C146" s="23">
-        <v>144</v>
-      </c>
-      <c r="D146" s="24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="23">
-        <v>57</v>
-      </c>
-      <c r="B147" s="22">
-        <v>31</v>
-      </c>
-      <c r="C147" s="23">
-        <v>146</v>
-      </c>
-      <c r="D147" s="24">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="23">
-        <v>5</v>
-      </c>
-      <c r="B148" s="22">
-        <v>29</v>
-      </c>
-      <c r="C148" s="23">
-        <v>147</v>
-      </c>
-      <c r="D148" s="24">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="23">
-        <v>97</v>
-      </c>
-      <c r="B149" s="22">
-        <v>29</v>
-      </c>
-      <c r="C149" s="23">
-        <v>147</v>
-      </c>
-      <c r="D149" s="24">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="23">
-        <v>163</v>
-      </c>
-      <c r="B150" s="22">
-        <v>29</v>
-      </c>
-      <c r="C150" s="23">
-        <v>147</v>
-      </c>
-      <c r="D150" s="24">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="23">
-        <v>192</v>
-      </c>
-      <c r="B151" s="22">
-        <v>28</v>
-      </c>
-      <c r="C151" s="23">
-        <v>150</v>
-      </c>
-      <c r="D151" s="24">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="23">
-        <v>140</v>
-      </c>
-      <c r="B152" s="22">
-        <v>27</v>
-      </c>
-      <c r="C152" s="23">
-        <v>151</v>
-      </c>
-      <c r="D152" s="24">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="23">
-        <v>169</v>
-      </c>
-      <c r="B153" s="22">
-        <v>27</v>
-      </c>
-      <c r="C153" s="23">
-        <v>151</v>
-      </c>
-      <c r="D153" s="24">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="23">
-        <v>23</v>
-      </c>
-      <c r="B154" s="22">
-        <v>26</v>
-      </c>
-      <c r="C154" s="23">
-        <v>153</v>
-      </c>
-      <c r="D154" s="24">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="23">
-        <v>35</v>
-      </c>
-      <c r="B155" s="22">
-        <v>26</v>
-      </c>
-      <c r="C155" s="23">
-        <v>153</v>
-      </c>
-      <c r="D155" s="24">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="23">
-        <v>162</v>
-      </c>
-      <c r="B156" s="22">
-        <v>26</v>
-      </c>
-      <c r="C156" s="23">
-        <v>153</v>
-      </c>
-      <c r="D156" s="24">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="23">
-        <v>170</v>
-      </c>
-      <c r="B157" s="22">
-        <v>26</v>
-      </c>
-      <c r="C157" s="23">
-        <v>153</v>
-      </c>
-      <c r="D157" s="24">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="23">
-        <v>138</v>
-      </c>
-      <c r="B158" s="22">
-        <v>23</v>
-      </c>
-      <c r="C158" s="23">
-        <v>157</v>
-      </c>
-      <c r="D158" s="24">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="23">
-        <v>19</v>
-      </c>
-      <c r="B159" s="22">
-        <v>21</v>
-      </c>
-      <c r="C159" s="23">
-        <v>158</v>
-      </c>
-      <c r="D159" s="24">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="23">
-        <v>129</v>
-      </c>
-      <c r="B160" s="22">
-        <v>21</v>
-      </c>
-      <c r="C160" s="23">
-        <v>158</v>
-      </c>
-      <c r="D160" s="24">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="23">
-        <v>127</v>
-      </c>
-      <c r="B161" s="22">
-        <v>20</v>
-      </c>
-      <c r="C161" s="23">
-        <v>160</v>
-      </c>
-      <c r="D161" s="24">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="23">
-        <v>186</v>
-      </c>
-      <c r="B162" s="22">
-        <v>20</v>
-      </c>
-      <c r="C162" s="23">
-        <v>160</v>
-      </c>
-      <c r="D162" s="24">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="23">
-        <v>3</v>
-      </c>
-      <c r="B163" s="22">
-        <v>19</v>
-      </c>
-      <c r="C163" s="23">
-        <v>162</v>
-      </c>
-      <c r="D163" s="24">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="23">
-        <v>109</v>
-      </c>
-      <c r="B164" s="22">
-        <v>19</v>
-      </c>
-      <c r="C164" s="23">
-        <v>162</v>
-      </c>
-      <c r="D164" s="24">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="23">
-        <v>38</v>
-      </c>
-      <c r="B165" s="22">
-        <v>18</v>
-      </c>
-      <c r="C165" s="23">
-        <v>164</v>
-      </c>
-      <c r="D165" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="23">
-        <v>60</v>
-      </c>
-      <c r="B166" s="22">
-        <v>18</v>
-      </c>
-      <c r="C166" s="23">
-        <v>164</v>
-      </c>
-      <c r="D166" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="23">
-        <v>166</v>
-      </c>
-      <c r="B167" s="22">
-        <v>18</v>
-      </c>
-      <c r="C167" s="23">
-        <v>164</v>
-      </c>
-      <c r="D167" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="23">
-        <v>8</v>
-      </c>
-      <c r="B168" s="22">
-        <v>17</v>
-      </c>
-      <c r="C168" s="23">
-        <v>167</v>
-      </c>
-      <c r="D168" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="23">
-        <v>139</v>
-      </c>
-      <c r="B169" s="22">
-        <v>17</v>
-      </c>
-      <c r="C169" s="23">
-        <v>167</v>
-      </c>
-      <c r="D169" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="23">
-        <v>154</v>
-      </c>
-      <c r="B170" s="22">
-        <v>17</v>
-      </c>
-      <c r="C170" s="23">
-        <v>167</v>
-      </c>
-      <c r="D170" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="23">
-        <v>126</v>
-      </c>
-      <c r="B171" s="22">
-        <v>16</v>
-      </c>
-      <c r="C171" s="23">
-        <v>170</v>
-      </c>
-      <c r="D171" s="24">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="23">
-        <v>34</v>
-      </c>
-      <c r="B172" s="22">
-        <v>15</v>
-      </c>
-      <c r="C172" s="23">
-        <v>171</v>
-      </c>
-      <c r="D172" s="24">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="23">
-        <v>134</v>
-      </c>
-      <c r="B173" s="22">
-        <v>15</v>
-      </c>
-      <c r="C173" s="23">
-        <v>171</v>
-      </c>
-      <c r="D173" s="24">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="23">
-        <v>135</v>
-      </c>
-      <c r="B174" s="22">
-        <v>15</v>
-      </c>
-      <c r="C174" s="23">
-        <v>171</v>
-      </c>
-      <c r="D174" s="24">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="23">
-        <v>150</v>
-      </c>
-      <c r="B175" s="22">
-        <v>14</v>
-      </c>
-      <c r="C175" s="23">
-        <v>174</v>
-      </c>
-      <c r="D175" s="24">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="23">
-        <v>180</v>
-      </c>
-      <c r="B176" s="22">
-        <v>14</v>
-      </c>
-      <c r="C176" s="23">
-        <v>174</v>
-      </c>
-      <c r="D176" s="24">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="23">
-        <v>20</v>
-      </c>
-      <c r="B177" s="22">
-        <v>11</v>
-      </c>
-      <c r="C177" s="23">
-        <v>176</v>
-      </c>
-      <c r="D177" s="24">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="23">
-        <v>33</v>
-      </c>
-      <c r="B178" s="22">
-        <v>9</v>
-      </c>
-      <c r="C178" s="23">
-        <v>177</v>
-      </c>
-      <c r="D178" s="24">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="23">
-        <v>64</v>
-      </c>
-      <c r="B179" s="22">
-        <v>9</v>
-      </c>
-      <c r="C179" s="23">
-        <v>177</v>
-      </c>
-      <c r="D179" s="24">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="23">
-        <v>147</v>
-      </c>
-      <c r="B180" s="22">
-        <v>9</v>
-      </c>
-      <c r="C180" s="23">
-        <v>177</v>
-      </c>
-      <c r="D180" s="24">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="23">
-        <v>79</v>
-      </c>
-      <c r="B181" s="22">
-        <v>7.1349999999999998</v>
-      </c>
-      <c r="C181" s="23">
-        <v>180</v>
-      </c>
-      <c r="D181" s="24">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="23">
-        <v>92</v>
-      </c>
-      <c r="B182" s="22">
-        <v>7</v>
-      </c>
-      <c r="C182" s="23">
-        <v>181</v>
-      </c>
-      <c r="D182" s="24">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="23">
-        <v>22</v>
-      </c>
-      <c r="B183" s="22">
-        <v>5</v>
-      </c>
-      <c r="C183" s="23">
-        <v>182</v>
-      </c>
-      <c r="D183" s="24">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="23">
-        <v>112</v>
-      </c>
-      <c r="B184" s="22">
-        <v>5</v>
-      </c>
-      <c r="C184" s="23">
-        <v>182</v>
-      </c>
-      <c r="D184" s="24">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="23">
-        <v>32</v>
-      </c>
-      <c r="B185" s="22">
-        <v>4</v>
-      </c>
-      <c r="C185" s="23">
-        <v>184</v>
-      </c>
-      <c r="D185" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="23">
-        <v>62</v>
-      </c>
-      <c r="B186" s="22">
-        <v>4</v>
-      </c>
-      <c r="C186" s="23">
-        <v>184</v>
-      </c>
-      <c r="D186" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="23">
-        <v>76</v>
-      </c>
-      <c r="B187" s="22">
-        <v>4</v>
-      </c>
-      <c r="C187" s="23">
-        <v>184</v>
-      </c>
-      <c r="D187" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="23">
-        <v>81</v>
-      </c>
-      <c r="B188" s="22">
-        <v>4</v>
-      </c>
-      <c r="C188" s="23">
-        <v>184</v>
-      </c>
-      <c r="D188" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="23">
-        <v>101</v>
-      </c>
-      <c r="B189" s="22">
-        <v>4</v>
-      </c>
-      <c r="C189" s="23">
-        <v>184</v>
-      </c>
-      <c r="D189" s="24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="23">
-        <v>69</v>
-      </c>
-      <c r="B190" s="22">
-        <v>3.2690000000000001</v>
-      </c>
-      <c r="C190" s="23">
-        <v>189</v>
-      </c>
-      <c r="D190" s="24">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="23">
-        <v>11</v>
-      </c>
-      <c r="B191" s="22">
-        <v>3</v>
-      </c>
-      <c r="C191" s="23">
-        <v>190</v>
-      </c>
-      <c r="D191" s="24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="23">
-        <v>122</v>
-      </c>
-      <c r="B192" s="22">
-        <v>3</v>
-      </c>
-      <c r="C192" s="23">
-        <v>190</v>
-      </c>
-      <c r="D192" s="24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="23">
-        <v>117</v>
-      </c>
-      <c r="B193" s="22">
-        <v>2</v>
-      </c>
-      <c r="C193" s="23">
-        <v>192</v>
-      </c>
-      <c r="D193" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="25">
-        <v>190</v>
-      </c>
-      <c r="B194" s="29">
-        <v>2</v>
-      </c>
-      <c r="C194" s="25">
-        <v>192</v>
-      </c>
-      <c r="D194" s="26">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D194">
-    <sortCondition ref="C3"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+      <selection activeCell="F25" sqref="F25:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4995,7 +1755,7 @@
         <v>1329</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5008,6 +1768,9 @@
       <c r="C22" s="8">
         <v>47</v>
       </c>
+      <c r="E22" s="22" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -5019,12 +1782,6 @@
       <c r="C23" s="8">
         <v>386</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.3">
@@ -5037,11 +1794,11 @@
       <c r="C24" s="8">
         <v>21</v>
       </c>
-      <c r="E24" s="17">
-        <v>20</v>
-      </c>
-      <c r="F24" s="28">
-        <v>34</v>
+      <c r="E24" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -5056,11 +1813,9 @@
         <v>11</v>
       </c>
       <c r="E25" s="17">
-        <v>50</v>
-      </c>
-      <c r="F25" s="28">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -5073,11 +1828,9 @@
         <v>63</v>
       </c>
       <c r="E26" s="17">
-        <v>100</v>
-      </c>
-      <c r="F26" s="28">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -5090,11 +1843,9 @@
         <v>5</v>
       </c>
       <c r="E27" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="28">
-        <v>81</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -5107,11 +1858,9 @@
         <v>26</v>
       </c>
       <c r="E28" s="17">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="28">
-        <v>6</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -5123,7 +1872,10 @@
       <c r="C29" s="8">
         <v>210</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="17">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -7204,7 +3956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E20"/>
   <sheetViews>
@@ -7309,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
